--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2340709.422222977</v>
+        <v>2456325.982047839</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445555.52943491</v>
+        <v>12445534.67060185</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9285787.799652776</v>
+        <v>9285792.284460817</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.3828147651804</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>263.3828147651804</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>263.3828147651804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>231.9875832451708</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.2792495146818396</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>106.1032336206676</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>136.7414024428005</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.32126071057171</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.3828147651804</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>130.6957491138046</v>
       </c>
     </row>
     <row r="5">
@@ -902,67 +904,67 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
+        <v>7.155295256393217</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>212.2897156032232</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="G5" t="n">
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="H5" t="n">
-        <v>232.2791855053265</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>139.602966636165</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>130.62493092903</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>70.54155374269661</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>246.9027496414554</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>192.3238256268009</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>335.6093456407589</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.24979976115237</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,7 +1277,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>203.9965360389475</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>142.0251683486365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>228.8021729213725</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.75513637220187</v>
+        <v>139.7414329637099</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>137.9792024346631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>258.5202580022763</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>112.5133406574304</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>239.1026360461401</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>174.7683347992599</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>182.2777079560311</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>148.0280580960837</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2722,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>245.8796921214435</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>10.74993283584276</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>41.55695577161238</v>
+        <v>140.9271808900464</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>183.8417748468617</v>
+        <v>151.5133592021562</v>
       </c>
     </row>
     <row r="35">
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>113.3214422457871</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>32.27552175740432</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3559,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>19.72264368952145</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>74.56474874233467</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>120.7871326503972</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>114.2935157990529</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>20.67756722603039</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>159.2661870898842</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1053.531259060722</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C2" t="n">
-        <v>787.4880118231656</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D2" t="n">
-        <v>787.4880118231656</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>521.4447645856096</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>255.4015173480536</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>21.07062518121443</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121443</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121443</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467323</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935562</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959972</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795978</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670328</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288947</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108067</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060722</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060722</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060722</v>
+        <v>1054.573449789174</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.531259060722</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="U2" t="n">
-        <v>1053.531259060722</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="V2" t="n">
-        <v>1053.531259060722</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="W2" t="n">
-        <v>1053.531259060722</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X2" t="n">
-        <v>1053.531259060722</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y2" t="n">
-        <v>1053.531259060722</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128.2456086364342</v>
+        <v>325.1841858830662</v>
       </c>
       <c r="C3" t="n">
-        <v>128.2456086364342</v>
+        <v>325.1841858830662</v>
       </c>
       <c r="D3" t="n">
-        <v>128.2456086364342</v>
+        <v>325.1841858830662</v>
       </c>
       <c r="E3" t="n">
-        <v>128.2456086364342</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="F3" t="n">
-        <v>21.07062518121443</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121443</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121443</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121443</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121443</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371045</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433172</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>503.0182926608458</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>738.5421433767062</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748523</v>
+        <v>904.2569522304912</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062221</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060722</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.531259060722</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1053.531259060722</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>1053.531259060722</v>
+        <v>768.0965928797627</v>
       </c>
       <c r="U3" t="n">
-        <v>825.3953723613325</v>
+        <v>768.0965928797627</v>
       </c>
       <c r="V3" t="n">
-        <v>590.2432641295898</v>
+        <v>532.9444846480201</v>
       </c>
       <c r="W3" t="n">
-        <v>336.0059074013881</v>
+        <v>532.9444846480201</v>
       </c>
       <c r="X3" t="n">
-        <v>336.0059074013881</v>
+        <v>532.9444846480201</v>
       </c>
       <c r="Y3" t="n">
-        <v>128.2456086364342</v>
+        <v>325.1841858830662</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.07062518121443</v>
+        <v>488.0630263227563</v>
       </c>
       <c r="C4" t="n">
-        <v>21.07062518121443</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="D4" t="n">
-        <v>21.07062518121443</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>21.07062518121443</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121443</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121443</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121443</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121443</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121443</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>125.4984182940708</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>315.717772996436</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030332</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670107</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836302</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097372</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060722</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060722</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060722</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060722</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="U4" t="n">
-        <v>1053.531259060722</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="V4" t="n">
-        <v>798.8467708548347</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="W4" t="n">
-        <v>532.8035236172788</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="X4" t="n">
-        <v>304.8139727192614</v>
+        <v>620.0789345185185</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.02139357573131</v>
+        <v>488.0630263227563</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388466</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388466</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="D5" t="n">
-        <v>788.4778634388466</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="E5" t="n">
-        <v>788.4778634388466</v>
+        <v>41.28849413961871</v>
       </c>
       <c r="F5" t="n">
-        <v>522.1002068716687</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>255.7225503044907</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4595,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>307.6661507067967</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>548.0874629353336</v>
+        <v>622.8943334057194</v>
       </c>
       <c r="C6" t="n">
-        <v>373.6344336542066</v>
+        <v>448.4413041245924</v>
       </c>
       <c r="D6" t="n">
-        <v>224.7000239929554</v>
+        <v>299.5068944633412</v>
       </c>
       <c r="E6" t="n">
-        <v>65.46256898749988</v>
+        <v>299.5068944633412</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
         <v>338.874007230231</v>
@@ -4668,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>755.9389631408665</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="U6" t="n">
-        <v>755.9389631408665</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="V6" t="n">
-        <v>755.9389631408665</v>
+        <v>622.8943334057194</v>
       </c>
       <c r="W6" t="n">
-        <v>755.9389631408665</v>
+        <v>622.8943334057194</v>
       </c>
       <c r="X6" t="n">
-        <v>548.0874629353336</v>
+        <v>622.8943334057194</v>
       </c>
       <c r="Y6" t="n">
-        <v>548.0874629353336</v>
+        <v>622.8943334057194</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>353.1708304446448</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>184.2346475167379</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2346475167379</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375335</v>
@@ -4747,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U7" t="n">
-        <v>983.601425316432</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V7" t="n">
-        <v>983.601425316432</v>
+        <v>469.8792404416679</v>
       </c>
       <c r="W7" t="n">
-        <v>983.601425316432</v>
+        <v>469.8792404416679</v>
       </c>
       <c r="X7" t="n">
-        <v>755.6118744184147</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>534.8192952748846</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1524.3658339278</v>
+        <v>1228.613747503048</v>
       </c>
       <c r="C8" t="n">
-        <v>1524.3658339278</v>
+        <v>859.6512305626361</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>859.6512305626361</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>473.8629779643919</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>466.9174772151885</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.370225146717</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.1757437607421</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.1862829045931</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2053.905718940596</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2359.356530550198</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2540.564622661164</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2306.981581868353</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.83159218888</v>
+        <v>2306.981581868353</v>
       </c>
       <c r="W8" t="n">
-        <v>1897.83159218888</v>
+        <v>1954.212926598239</v>
       </c>
       <c r="X8" t="n">
-        <v>1524.3658339278</v>
+        <v>1615.213587567169</v>
       </c>
       <c r="Y8" t="n">
-        <v>1524.3658339278</v>
+        <v>1615.213587567169</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.3188829507235</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>422.9158793018228</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>717.4518627353041</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1080.518331209606</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1467.602733682175</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2101.342016867014</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2421.055229888881</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2536.272628442626</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2424.826280251699</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2230.816477685348</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2002.726321751577</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1767.574213519835</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1513.336856791633</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>194.7065525767269</v>
+        <v>789.6442778688802</v>
       </c>
       <c r="C10" t="n">
-        <v>194.7065525767269</v>
+        <v>620.7080949409733</v>
       </c>
       <c r="D10" t="n">
-        <v>194.7065525767269</v>
+        <v>620.7080949409733</v>
       </c>
       <c r="E10" t="n">
-        <v>194.7065525767269</v>
+        <v>620.7080949409733</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>473.818147443063</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8310225827537</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.63468308380149</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.2500215676568</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.3850043368921</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>823.8653899904036</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.15605541262</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.15605541262</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1310.174753887025</v>
       </c>
       <c r="U10" t="n">
-        <v>825.137147448514</v>
+        <v>1310.174753887025</v>
       </c>
       <c r="V10" t="n">
-        <v>825.137147448514</v>
+        <v>1079.061447905841</v>
       </c>
       <c r="W10" t="n">
-        <v>825.137147448514</v>
+        <v>789.6442778688802</v>
       </c>
       <c r="X10" t="n">
-        <v>597.1475965504967</v>
+        <v>789.6442778688802</v>
       </c>
       <c r="Y10" t="n">
-        <v>376.3550174069666</v>
+        <v>789.6442778688802</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5029,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232838</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611464</v>
@@ -5267,31 +5269,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385791</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.91413360155</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>3324.292621228102</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>3951.890584782709</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O18" t="n">
-        <v>4457.571492023711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614391</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.53722908186</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153953</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673938</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>4404.185983673938</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>4149.501495468051</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953647</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912099</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5978,58 +5980,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192667</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111723</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2012.943648562283</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1723.868421906481</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1469.183933700594</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1179.766763663633</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>951.777212765616</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,52 +6214,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>2389.334518447046</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>2884.660124662805</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>3482.038612289356</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>721.7774158311364</v>
+        <v>3052.912304341663</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032295</v>
+        <v>2883.976121413757</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2404.986360578632</v>
+        <v>4481.436760883272</v>
       </c>
       <c r="T31" t="n">
-        <v>2185.384895601573</v>
+        <v>4261.835295906213</v>
       </c>
       <c r="U31" t="n">
-        <v>1896.309668945771</v>
+        <v>3972.760069250411</v>
       </c>
       <c r="V31" t="n">
-        <v>1641.625180739884</v>
+        <v>3972.760069250411</v>
       </c>
       <c r="W31" t="n">
-        <v>1352.208010702924</v>
+        <v>3683.34289921345</v>
       </c>
       <c r="X31" t="n">
-        <v>1124.218459804906</v>
+        <v>3455.353348315433</v>
       </c>
       <c r="Y31" t="n">
-        <v>903.4258806613761</v>
+        <v>3234.560769171903</v>
       </c>
     </row>
     <row r="32">
@@ -6695,19 +6697,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6716,7 +6718,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6725,13 +6727,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6880,25 +6882,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V34" t="n">
-        <v>1755.431557602304</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W34" t="n">
-        <v>1466.014387565343</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>1466.014387565343</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="Y34" t="n">
         <v>1280.315625093766</v>
@@ -6944,13 +6946,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>2418.621364762389</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>2913.946970978147</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>3511.325458604699</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>4138.923422159306</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811332</v>
+        <v>915.1035305473703</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532263</v>
+        <v>746.1673476194634</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>746.1673476194634</v>
       </c>
       <c r="E37" t="n">
         <v>631.7012443408905</v>
@@ -7117,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2414.36154645157</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U37" t="n">
-        <v>2125.286319795768</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1870.601831589881</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1581.18466155292</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.195110654903</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511373</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
@@ -7169,13 +7171,13 @@
         <v>93.8166630479719</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.3929232910542</v>
+        <v>950.1865537761984</v>
       </c>
       <c r="C40" t="n">
-        <v>782.4567403631473</v>
+        <v>781.2503708482915</v>
       </c>
       <c r="D40" t="n">
-        <v>632.3401009508116</v>
+        <v>631.1337314359557</v>
       </c>
       <c r="E40" t="n">
-        <v>484.4270073684185</v>
+        <v>483.2206378535626</v>
       </c>
       <c r="F40" t="n">
-        <v>337.5370598705081</v>
+        <v>336.3306903556522</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>169.1345910705322</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7357,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.823518162841</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.833967264824</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.041388121294</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="41">
@@ -7406,10 +7408,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075804</v>
@@ -7436,7 +7438,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7488,28 +7490,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>139.2347658407936</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>139.2347658407936</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565524</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683104</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>363.7369613277359</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>215.8238677453428</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7643,43 +7645,43 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7731,19 +7733,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>779.6143379232836</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6143379232836</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578601</v>
@@ -7828,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.22181769372</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1954.146591037918</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V46" t="n">
-        <v>1699.462102832031</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W46" t="n">
-        <v>1410.044932795071</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X46" t="n">
-        <v>1182.055381897053</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y46" t="n">
-        <v>961.2628027535234</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877299</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079508</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,16 +8066,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.01218599085081</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>25.88658582607189</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.262887399594376</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8137,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>105.9060266940979</v>
+        <v>106.7437663446524</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>304.9014880782319</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>73.41197433559859</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11297,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.07684380973542</v>
+        <v>40.09054721822739</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>114.1584408891649</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>28.00274033431469</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>67.31863952450691</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>47.4203622904509</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24178,16 +24180,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>111.7546635373311</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>35.12774237125717</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>40.30478226780065</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.834720516252</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.4693302300322</v>
+        <v>40.09910511159816</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.74287850523305</v>
+        <v>67.07129414993855</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>33.11252040078205</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>185.1299285698839</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>145.8014946027474</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>65.72996410388919</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.63391537253405</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>111.4161395899843</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>196.7278831012579</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>127.2568112467068</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>816606.8856533832</v>
+        <v>816620.319212515</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>822190.1864898256</v>
+        <v>822180.507520644</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797946.9260679777</v>
+        <v>797946.9260679778</v>
       </c>
     </row>
     <row r="16">
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597547</v>
@@ -26347,13 +26349,13 @@
         <v>625538.614759755</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909295</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680940837</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059435</v>
+        <v>390680.007658079</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507909.2320606931</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642086</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774268352</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756981</v>
+        <v>95270.23779101772</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132717.975695469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252222.5944320861</v>
+        <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141542.8205525801</v>
+        <v>141668.850744721</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.9762168057</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680576</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680576</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680579</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680577</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557688</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92902.86757567897</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-358639.0969237725</v>
+        <v>-358950.4774138169</v>
       </c>
       <c r="C6" t="n">
-        <v>320771.032809282</v>
+        <v>321137.5031773761</v>
       </c>
       <c r="D6" t="n">
-        <v>10698.4148464521</v>
+        <v>11055.64566634063</v>
       </c>
       <c r="E6" t="n">
-        <v>5153.667094496253</v>
+        <v>4729.876658349007</v>
       </c>
       <c r="F6" t="n">
-        <v>512639.1087190423</v>
+        <v>512639.1087190419</v>
       </c>
       <c r="G6" t="n">
+        <v>512639.1087190417</v>
+      </c>
+      <c r="H6" t="n">
         <v>512639.108719042</v>
-      </c>
-      <c r="H6" t="n">
-        <v>512639.1087190422</v>
       </c>
       <c r="I6" t="n">
         <v>512639.108719042</v>
       </c>
       <c r="J6" t="n">
-        <v>443726.5755326212</v>
+        <v>443639.9542999279</v>
       </c>
       <c r="K6" t="n">
-        <v>512553.9031212991</v>
+        <v>512639.1087190416</v>
       </c>
       <c r="L6" t="n">
-        <v>417256.4625814722</v>
+        <v>417368.8709280242</v>
       </c>
       <c r="M6" t="n">
-        <v>380031.8149901155</v>
+        <v>379921.1330235731</v>
       </c>
       <c r="N6" t="n">
-        <v>512639.108719042</v>
+        <v>512639.1087190421</v>
       </c>
       <c r="O6" t="n">
         <v>512639.108719042</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960512</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>933.7024595627829</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651804</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.1406900856958</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,16 +26807,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960512</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734270012</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>320.009878348061</v>
+        <v>319.6474457933047</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>434.2730407788908</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651804</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363257418</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.4268100841897</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.5675980139525</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651804</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363257418</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.5675980139523</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651804</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363257418</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.4268100841897</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.5675980139525</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.8900770058272</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>118.5475553070814</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>143.493230976531</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>180.8477370908847</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305182</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739395</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>152.4884436845404</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>38.96597877271631</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500679</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807542</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642705</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>58.09958514207631</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.5107194713656</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180232</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825655</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>23.1401835714106</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>87.88890423829019</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>399.7207504853182</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>81.9144471239415</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27667,7 +27669,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>5.4662457572189</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>64.21605665584676</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>215.7170767599809</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>5.234893682372615</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>162.3592159938821</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465034</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>34.1217550377101</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27995,7 +27997,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1.776449164529936</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>3.395879674294719</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>23.33547040245551</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30277,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-7.394985773160066e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079601</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524897</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646641</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029075</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933471</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876045</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460613</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061213</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316485</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231208</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973325</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753591</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827646</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142096</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263681</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410375</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148967</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333965</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435872</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970823</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289719</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963479</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682316</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466122</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439951</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774366</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621608</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564882</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311989</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962994</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.10679840266501</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058009</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923505</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841623</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.589850782353</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653053</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195706</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187285</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.440923314869</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005026</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770373</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528309</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735295</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.72904772047777</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354609</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.44132789546671</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.5802175972533</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.469162776319</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.342717135493</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.095405035994</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>669.7602577525076</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.4356192307894</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.7691690983021</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.3441667542129</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.53465245140471</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3002862181508444</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.1468330902627</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.3030514502168</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.0654741571281</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>508.8678404617166</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.3360580152214</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>477.8354464519084</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.5050724947589</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.30405581366399</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.095024154133936</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.63422518415879</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.655959046235</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.70643221307414</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.34274778658777</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.194100917942751</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09183958618650333</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32233,34 +32235,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>653.3850396373757</v>
+        <v>624.1318526922785</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>322.6999460717711</v>
+        <v>556.7959610899863</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,7 +33265,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>297.1808238847163</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33272,7 +33274,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>189.0011860882997</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33281,7 +33283,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,31 +33499,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>245.8118639189577</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>307.465452939363</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33737,7 +33739,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.763496930518</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33746,7 +33748,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33755,7 +33757,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,10 +33973,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33983,10 +33985,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>322.6999460717711</v>
+        <v>290.6810969936916</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
@@ -33995,7 +33997,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34126,13 +34128,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817571</v>
       </c>
       <c r="L41" t="n">
         <v>867.8464071162563</v>
@@ -34208,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>172.7144981745674</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34451,7 +34453,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34463,10 +34465,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622121</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836654</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176173</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187886</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095304</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099617</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678512</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288297</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272326</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490977</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>263.3828147651804</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>237.9028795109702</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021678</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296649</v>
+        <v>123.5028874333353</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141508</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>105.4826193059155</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256214</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814112</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979571</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289086</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653961</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009349</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>245.5483596572286</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.534313070567</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.3793117313385</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.5763021655058</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>428.7491718087213</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.3471941559167</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.3374078091026</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.5361733430325</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.20013907234292</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>188.9976037816847</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.4616124758578</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.5110943772539</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.7338065396983</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>390.9943459318881</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>640.1406900856958</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>322.9426394160272</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.3812106603486</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783574</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.68023017873315</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.7881314254636</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.5721089186651</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.82702814228584</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>510.7887951929313</v>
+        <v>481.5356082478341</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>191.3582339884378</v>
+        <v>425.454249006653</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>159.3393849103574</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36920,7 +36922,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>57.65947400496642</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -36929,7 +36931,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>103.6778299969394</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>173.4910455250327</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.922057956159</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37394,7 +37396,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37631,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>191.3582339884378</v>
+        <v>159.3393849103583</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>45.87687150790074</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
@@ -38099,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,10 +38113,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2456325.982047839</v>
+        <v>2452021.64223797</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9285792.284460817</v>
+        <v>9285792.284460815</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2792495146818396</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>212.5689651179052</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>136.7414024428005</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>72.46613523024565</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>33.80378320463304</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.6957491138046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.155295256393217</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>139.602966636165</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>120.5084574863874</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>246.9027496414554</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>401.7658152607009</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465068</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>335.6093456407589</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>91.06264775160464</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115237</v>
+        <v>20.24979976115252</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1277,7 +1277,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>203.9965360389475</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>65.7452143035825</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>228.8021729213725</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139.7414329637099</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>112.6849016609894</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892499</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>258.5202580022763</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>239.1026360461401</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771009</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>182.2777079560311</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>139.1630968205466</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.74993283584276</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>140.9271808900464</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>85.08368458989466</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>151.5133592021562</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>113.3214422457871</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337067</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H40" t="n">
-        <v>74.56474874233467</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3793,7 +3793,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>114.2935157990529</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>159.2661870898842</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573.7617370571243</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="C2" t="n">
-        <v>573.7617370571243</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899464</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030612</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991325</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.514968335842</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.573449789174</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>840.1393936243022</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="Y2" t="n">
-        <v>573.7617370571243</v>
+        <v>573.7617370571245</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>325.1841858830662</v>
+        <v>795.1061827985596</v>
       </c>
       <c r="C3" t="n">
-        <v>325.1841858830662</v>
+        <v>620.6531535174327</v>
       </c>
       <c r="D3" t="n">
-        <v>325.1841858830662</v>
+        <v>471.7187438561813</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>312.4812888507258</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>165.9467308776108</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>165.9467308776108</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699348</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302314</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>904.2569522304912</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>768.0965928797627</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>768.0965928797627</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>532.9444846480201</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>532.9444846480201</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>532.9444846480201</v>
+        <v>963.3215198186276</v>
       </c>
       <c r="Y3" t="n">
-        <v>325.1841858830662</v>
+        <v>963.3215198186276</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>488.0630263227563</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="C4" t="n">
-        <v>319.1268433948493</v>
+        <v>660.4503008361324</v>
       </c>
       <c r="D4" t="n">
-        <v>169.0102039825136</v>
+        <v>510.3336614237967</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>362.4205678414036</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>362.4205678414036</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>193.851207196407</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4515,25 +4515,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165359</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="U4" t="n">
-        <v>848.0684854165359</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="V4" t="n">
-        <v>848.0684854165359</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="W4" t="n">
-        <v>848.0684854165359</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="X4" t="n">
-        <v>620.0789345185185</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="Y4" t="n">
-        <v>488.0630263227563</v>
+        <v>829.3864837640393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.6661507067967</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>307.6661507067967</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="D5" t="n">
-        <v>307.6661507067967</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E5" t="n">
-        <v>41.28849413961871</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>248.7770495552872</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>235.8132367818428</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4567,22 +4567,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>840.4214638411526</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W5" t="n">
-        <v>574.0438072739746</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>574.0438072739746</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.6661507067967</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>622.8943334057194</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>448.4413041245924</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>299.5068944633412</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>299.5068944633412</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
         <v>21.09711040012049</v>
@@ -4652,10 +4652,10 @@
         <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>503.6022960313624</v>
       </c>
       <c r="N6" t="n">
         <v>739.5286634293598</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>858.0464416374622</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>858.0464416374622</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>622.8943334057194</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>622.8943334057194</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X6" t="n">
-        <v>622.8943334057194</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y6" t="n">
-        <v>622.8943334057194</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.09711040012049</v>
+        <v>158.0472685670594</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>469.8792404416679</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>469.8792404416679</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X7" t="n">
-        <v>241.8896895436506</v>
+        <v>560.4883125408293</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.09711040012049</v>
+        <v>339.6957333972991</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1228.613747503048</v>
+        <v>916.1994525092039</v>
       </c>
       <c r="C8" t="n">
-        <v>859.6512305626361</v>
+        <v>916.1994525092039</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6512305626361</v>
+        <v>916.1994525092039</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8629779643919</v>
+        <v>530.4111999109596</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9174772151885</v>
+        <v>523.4656991617561</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685567</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685567</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685567</v>
+        <v>51.21125520685546</v>
       </c>
       <c r="J8" t="n">
-        <v>187.370225146717</v>
+        <v>187.3702251467162</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607421</v>
+        <v>442.1757437607402</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045931</v>
+        <v>795.1862829045895</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.647962995222</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209585</v>
+        <v>1655.591685209578</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940596</v>
+        <v>2053.905718940588</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550198</v>
+        <v>2359.356530550189</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661164</v>
+        <v>2540.564622661154</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.562760342773</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342783</v>
+        <v>2435.830015762126</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342783</v>
+        <v>2227.077931858399</v>
       </c>
       <c r="U8" t="n">
-        <v>2306.981581868353</v>
+        <v>1973.496753383969</v>
       </c>
       <c r="V8" t="n">
-        <v>2306.981581868353</v>
+        <v>1642.433866040398</v>
       </c>
       <c r="W8" t="n">
-        <v>1954.212926598239</v>
+        <v>1289.665210770284</v>
       </c>
       <c r="X8" t="n">
-        <v>1615.213587567169</v>
+        <v>916.1994525092039</v>
       </c>
       <c r="Y8" t="n">
-        <v>1615.213587567169</v>
+        <v>916.1994525092039</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010677</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199407</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818586895</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.884826853234</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.350268880119</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763071</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>71.66559839993882</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685567</v>
+        <v>51.21125520685546</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507235</v>
+        <v>113.4887579637182</v>
       </c>
       <c r="K9" t="n">
-        <v>422.9158793018228</v>
+        <v>298.0857543148167</v>
       </c>
       <c r="L9" t="n">
-        <v>717.4518627353041</v>
+        <v>592.6217377482972</v>
       </c>
       <c r="M9" t="n">
-        <v>1080.518331209606</v>
+        <v>1226.361020933133</v>
       </c>
       <c r="N9" t="n">
-        <v>1467.602733682175</v>
+        <v>1860.10030411797</v>
       </c>
       <c r="O9" t="n">
-        <v>2101.342016867014</v>
+        <v>2198.310003359405</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888881</v>
+        <v>2445.345361789028</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442626</v>
+        <v>2560.562760342773</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.562760342773</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251699</v>
+        <v>2424.826280251688</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685348</v>
+        <v>2230.816477685337</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751577</v>
+        <v>2002.726321751567</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519835</v>
+        <v>1767.574213519824</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791633</v>
+        <v>1513.336856791622</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.48535658609</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821136</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>789.6442778688802</v>
+        <v>1005.338550605572</v>
       </c>
       <c r="C10" t="n">
-        <v>620.7080949409733</v>
+        <v>836.4023676776648</v>
       </c>
       <c r="D10" t="n">
-        <v>620.7080949409733</v>
+        <v>686.285728265329</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7080949409733</v>
+        <v>538.3726346829359</v>
       </c>
       <c r="F10" t="n">
-        <v>473.818147443063</v>
+        <v>391.4826871850255</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>223.4955623247162</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685567</v>
+        <v>51.21125520685546</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380149</v>
+        <v>76.63468308380102</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676568</v>
+        <v>248.2500215676559</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368921</v>
+        <v>523.3850043368905</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904036</v>
+        <v>823.8653899904014</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.63564010161</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931088</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616496</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.15605541262</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.15605541262</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.174753887025</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.174753887025</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="V10" t="n">
-        <v>1079.061447905841</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="W10" t="n">
-        <v>789.6442778688802</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="X10" t="n">
-        <v>789.6442778688802</v>
+        <v>1407.779594579341</v>
       </c>
       <c r="Y10" t="n">
-        <v>789.6442778688802</v>
+        <v>1186.987015435811</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>734.6461798835959</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>734.6461798835959</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>584.5295404712601</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>436.616446888867</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>289.7264993909566</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138356</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159259</v>
+        <v>916.2946447138356</v>
       </c>
     </row>
     <row r="14">
@@ -5266,49 +5266,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.569791909146</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5980,58 +5980,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2012.943648562283</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1723.868421906481</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1469.183933700594</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1179.766763663633</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>951.777212765616</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,52 +6214,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,73 +6360,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y28" t="n">
         <v>1133.425677595856</v>
@@ -6457,37 +6457,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3052.912304341663</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>2883.976121413757</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.859482001421</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4481.436760883272</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4261.835295906213</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3972.760069250411</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3972.760069250411</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3683.34289921345</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3455.353348315433</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3234.560769171903</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6718,7 +6718,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6727,13 +6727,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1433.359422267661</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C37" t="n">
-        <v>746.1673476194634</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D37" t="n">
-        <v>746.1673476194634</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7207,16 +7207,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.1865537761984</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>781.2503708482915</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>631.1337314359557</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>483.2206378535626</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>336.3306903556522</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>169.1345910705322</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,19 +7426,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7563,10 +7563,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7599,16 +7599,16 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1616.556199993915</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
         <v>1501.108204237296</v>
@@ -7645,34 +7645,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578601</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127284</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.262887399594376</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446524</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775174</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8300,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>26.13373767211354</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.406883545996</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538062</v>
       </c>
       <c r="O9" t="n">
-        <v>304.9014880782319</v>
+        <v>6.386756822269433</v>
       </c>
       <c r="P9" t="n">
-        <v>73.41197433559859</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348535</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.09054721822739</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>52.83923663127948</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>28.00274033431469</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>47.4203622904509</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>35.12774237125717</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>147.0213775686976</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.834720516252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>40.09910511159816</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>80.44045370237419</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>67.07129414993855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>33.11252040078205</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6.922421112517128</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H40" t="n">
-        <v>65.72996410388919</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>111.4161395899843</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>127.2568112467068</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797946.9260679777</v>
+        <v>797946.9260679776</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>797946.9260679777</v>
+        <v>797946.9260679778</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>797946.9260679777</v>
+        <v>797946.9260679776</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="H2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="K2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.007658079</v>
+        <v>390680.0076580765</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606931</v>
+        <v>507909.2320606958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101772</v>
+        <v>95270.237791017</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.975695469</v>
+        <v>132717.9756954697</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.850744721</v>
+        <v>141668.8507447217</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680572</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680574</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26444,22 +26444,22 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680579</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680578</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567897</v>
+        <v>92902.86757567877</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-358950.4774138169</v>
+        <v>-358950.4774138168</v>
       </c>
       <c r="C6" t="n">
-        <v>321137.5031773761</v>
+        <v>321137.5031773759</v>
       </c>
       <c r="D6" t="n">
-        <v>11055.64566634063</v>
+        <v>11055.64566634299</v>
       </c>
       <c r="E6" t="n">
-        <v>4729.876658349007</v>
+        <v>4382.497403989481</v>
       </c>
       <c r="F6" t="n">
-        <v>512639.1087190419</v>
+        <v>512291.7294646851</v>
       </c>
       <c r="G6" t="n">
-        <v>512639.1087190417</v>
+        <v>512291.7294646849</v>
       </c>
       <c r="H6" t="n">
-        <v>512639.108719042</v>
+        <v>512291.7294646853</v>
       </c>
       <c r="I6" t="n">
-        <v>512639.108719042</v>
+        <v>512291.7294646849</v>
       </c>
       <c r="J6" t="n">
-        <v>443639.9542999279</v>
+        <v>443292.5750455707</v>
       </c>
       <c r="K6" t="n">
-        <v>512639.1087190416</v>
+        <v>512291.729464685</v>
       </c>
       <c r="L6" t="n">
-        <v>417368.8709280242</v>
+        <v>417021.491673668</v>
       </c>
       <c r="M6" t="n">
-        <v>379921.1330235731</v>
+        <v>379573.7537692152</v>
       </c>
       <c r="N6" t="n">
-        <v>512639.1087190421</v>
+        <v>512291.7294646848</v>
       </c>
       <c r="O6" t="n">
-        <v>512639.108719042</v>
+        <v>512291.7294646848</v>
       </c>
       <c r="P6" t="n">
-        <v>512639.108719042</v>
+        <v>512291.7294646849</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627829</v>
+        <v>933.7024595627809</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856958</v>
+        <v>640.1406900856932</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099649</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933047</v>
+        <v>319.6474457933026</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788908</v>
+        <v>434.2730407788931</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841897</v>
+        <v>376.4268100841871</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139525</v>
+        <v>532.5675980139554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841899</v>
+        <v>376.4268100841871</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139523</v>
+        <v>532.5675980139554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841897</v>
+        <v>376.4268100841871</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139525</v>
+        <v>532.5675980139554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619743</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.4884436845404</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>157.1621355605638</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>122.5240586545473</v>
       </c>
     </row>
     <row r="3">
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>58.09958514207631</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>133.3068499732318</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>118.5783761312237</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>87.88890423829019</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>399.7207504853182</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>101.6246675113629</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27669,22 +27669,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,22 +27694,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>57.21613438642676</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>5.4662457572189</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27757,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>46.73836361224039</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27833,10 +27833,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>5.234893682372615</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>9.783344527548536</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465034</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>34.1217550377101</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.776449164540466</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27997,7 +27997,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1.776449164529936</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>81.51210565545706</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>23.33547040245551</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28149,13 +28149,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.179602050945138e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28304,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-5.809605180071106e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885557</v>
+        <v>3.753577726885548</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.44132789546664</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157552</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972533</v>
+        <v>318.5802175972526</v>
       </c>
       <c r="K8" t="n">
-        <v>477.469162776319</v>
+        <v>477.4691627763179</v>
       </c>
       <c r="L8" t="n">
-        <v>592.342717135493</v>
+        <v>592.3427171354916</v>
       </c>
       <c r="M8" t="n">
-        <v>659.095405035994</v>
+        <v>659.0954050359925</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525076</v>
+        <v>669.7602577525062</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307894</v>
+        <v>632.4356192307879</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983021</v>
+        <v>539.7691690983008</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542129</v>
+        <v>405.344166754212</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864745</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140471</v>
+        <v>85.53465245140453</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.4312864994415</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508438</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436925</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035136</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902627</v>
+        <v>69.14683309026256</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079421</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502168</v>
+        <v>324.3030514502161</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571281</v>
+        <v>436.0654741571271</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617166</v>
+        <v>508.8678404617155</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152214</v>
+        <v>522.3360580152203</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519084</v>
+        <v>477.8354464519073</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947589</v>
+        <v>383.5050724947581</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463702</v>
+        <v>256.3629847463696</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204786</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366399</v>
+        <v>37.30405581366391</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133936</v>
+        <v>8.095024154133919</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.132127706541903</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752555</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.9698525484</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415879</v>
+        <v>50.63422518415869</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954057</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772514</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490118</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023125</v>
+        <v>263.9316641023119</v>
       </c>
       <c r="N10" t="n">
-        <v>257.655959046235</v>
+        <v>257.6559590462344</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046249</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.6389757708726</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939799</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307414</v>
+        <v>75.70643221307398</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658777</v>
+        <v>29.34274778658771</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942751</v>
+        <v>7.194100917942735</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650333</v>
+        <v>0.09183958618650313</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>624.1318526922785</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,10 +33259,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>189.0011860882997</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,10 +33496,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>307.465452939363</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,13 +33733,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,13 +33970,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
         <v>867.8464071162563</v>
@@ -34207,13 +34207,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,16 +34444,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089033</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
@@ -34792,10 +34792,10 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>123.5028874333353</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649638</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827497113</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>238.3094620181792</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705663</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313385</v>
+        <v>257.3793117313374</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655058</v>
+        <v>356.5763021655044</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087213</v>
+        <v>428.7491718087198</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559167</v>
+        <v>440.3471941559152</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091026</v>
+        <v>402.3374078091011</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430325</v>
+        <v>308.5361733430313</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797635</v>
+        <v>183.0384768797626</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234292</v>
+        <v>20.20013907234241</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816847</v>
+        <v>62.90656844127545</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758578</v>
+        <v>186.4616124758571</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772539</v>
+        <v>297.5110943772529</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396983</v>
+        <v>640.1406900856932</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318881</v>
+        <v>640.1406900856932</v>
       </c>
       <c r="O9" t="n">
-        <v>640.1406900856958</v>
+        <v>341.6259588297323</v>
       </c>
       <c r="P9" t="n">
-        <v>322.9426394160272</v>
+        <v>249.5306650804279</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603486</v>
+        <v>116.3812106603481</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783574</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873315</v>
+        <v>25.68023017873288</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513686</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093285</v>
+        <v>277.9141240093279</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641531</v>
+        <v>303.5155410641525</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254636</v>
+        <v>301.788131425463</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.5721089186646</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357661</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228584</v>
+        <v>54.82702814228553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287869</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>481.5356082478341</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>407.3236446867659</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>57.65947400496642</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>173.4910455250327</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367765</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2452021.64223797</v>
+        <v>2453782.172540755</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283198</v>
       </c>
     </row>
     <row r="9">
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>212.5689651179052</v>
+        <v>59.80127191868297</v>
       </c>
       <c r="Y2" t="n">
         <v>263.7138800015063</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>28.33708868093445</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>72.46613523024565</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,22 +825,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>33.80378320463304</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>242.8716569956706</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>97.26234557100807</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3170492634406</v>
+        <v>153.3100698760837</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>120.5084574863874</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>68.36004337105383</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>401.7658152607009</v>
+        <v>70.46344171888859</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465068</v>
+        <v>65.76608425465014</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06264775160464</v>
+        <v>92.83909691614504</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115252</v>
+        <v>18.47335059662977</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1308,10 +1308,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>65.7452143035825</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>23.30414408764867</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881307</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560513</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>112.6849016609894</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>67.43549003635425</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892499</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,10 +1669,10 @@
         <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174147</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>74.5647487423348</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.272891771009</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>104.7777418077836</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>59.3100580403004</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605708937</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>139.1630968205466</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>102.1557845699818</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>85.08368458989466</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272945</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>113.0992099793386</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417132</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>133.3722917337067</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>212.4287627768742</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>82.85993176807962</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4330,22 +4330,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030612</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991325</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.514968335842</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,19 +4357,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="X2" t="n">
         <v>840.1393936243026</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>795.1061827985596</v>
+        <v>678.8798842210031</v>
       </c>
       <c r="C3" t="n">
-        <v>620.6531535174327</v>
+        <v>504.4268549398761</v>
       </c>
       <c r="D3" t="n">
-        <v>471.7187438561813</v>
+        <v>355.4924452786248</v>
       </c>
       <c r="E3" t="n">
-        <v>312.4812888507258</v>
+        <v>196.2549902731693</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776108</v>
+        <v>49.72043230005428</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776108</v>
+        <v>49.72043230005428</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>49.72043230005428</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4412,10 +4412,10 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699348</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302314</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
         <v>529.4746963267552</v>
@@ -4433,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X3" t="n">
-        <v>963.3215198186276</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y3" t="n">
-        <v>963.3215198186276</v>
+        <v>847.0952212410712</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>829.3864837640393</v>
+        <v>809.530613949792</v>
       </c>
       <c r="C4" t="n">
-        <v>660.4503008361324</v>
+        <v>640.5944310218852</v>
       </c>
       <c r="D4" t="n">
-        <v>510.3336614237967</v>
+        <v>490.4777916095494</v>
       </c>
       <c r="E4" t="n">
-        <v>362.4205678414036</v>
+        <v>490.4777916095494</v>
       </c>
       <c r="F4" t="n">
-        <v>362.4205678414036</v>
+        <v>343.5878441116391</v>
       </c>
       <c r="G4" t="n">
-        <v>193.851207196407</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640393</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>829.3864837640393</v>
+        <v>809.530613949792</v>
       </c>
       <c r="V4" t="n">
-        <v>829.3864837640393</v>
+        <v>809.530613949792</v>
       </c>
       <c r="W4" t="n">
-        <v>829.3864837640393</v>
+        <v>809.530613949792</v>
       </c>
       <c r="X4" t="n">
-        <v>829.3864837640393</v>
+        <v>809.530613949792</v>
       </c>
       <c r="Y4" t="n">
-        <v>829.3864837640393</v>
+        <v>809.530613949792</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044907</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
-        <v>248.7770495552872</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>235.8132367818428</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4603,16 +4603,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>788.477863438847</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004804</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M6" t="n">
-        <v>503.6022960313624</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>826.7196740428385</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>591.5675658110958</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528705</v>
+        <v>591.5675658110958</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473376</v>
+        <v>383.716065605563</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823837</v>
+        <v>175.9557668406091</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.0472685670594</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434483</v>
+        <v>186.4381933466805</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>788.4778634388466</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="X7" t="n">
-        <v>560.4883125408293</v>
+        <v>757.8154202483573</v>
       </c>
       <c r="Y7" t="n">
-        <v>339.6957333972991</v>
+        <v>537.0228411048272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>916.1994525092039</v>
+        <v>1289.665210770303</v>
       </c>
       <c r="C8" t="n">
-        <v>916.1994525092039</v>
+        <v>1289.665210770303</v>
       </c>
       <c r="D8" t="n">
-        <v>916.1994525092039</v>
+        <v>1289.665210770303</v>
       </c>
       <c r="E8" t="n">
-        <v>530.4111999109596</v>
+        <v>903.8769581720585</v>
       </c>
       <c r="F8" t="n">
-        <v>523.4656991617561</v>
+        <v>492.8910533824509</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428662</v>
+        <v>421.7158597270079</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685546</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467162</v>
+        <v>187.370225146718</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607402</v>
+        <v>442.1757437607438</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045895</v>
+        <v>795.1862829045954</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995222</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209578</v>
+        <v>1655.591685209589</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940588</v>
+        <v>2053.905718940602</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550189</v>
+        <v>2359.356530550205</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661154</v>
+        <v>2540.564622661171</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342773</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762126</v>
+        <v>2435.830015762144</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858399</v>
+        <v>2227.077931858417</v>
       </c>
       <c r="U8" t="n">
-        <v>1973.496753383969</v>
+        <v>1973.496753383987</v>
       </c>
       <c r="V8" t="n">
-        <v>1642.433866040398</v>
+        <v>1642.433866040417</v>
       </c>
       <c r="W8" t="n">
-        <v>1289.665210770284</v>
+        <v>1289.665210770303</v>
       </c>
       <c r="X8" t="n">
-        <v>916.1994525092039</v>
+        <v>1289.665210770303</v>
       </c>
       <c r="Y8" t="n">
-        <v>916.1994525092039</v>
+        <v>1289.665210770303</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010677</v>
+        <v>929.5097208010859</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199407</v>
+        <v>755.0566915199589</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586895</v>
+        <v>606.1222818587077</v>
       </c>
       <c r="E9" t="n">
-        <v>446.884826853234</v>
+        <v>446.8848268532522</v>
       </c>
       <c r="F9" t="n">
-        <v>300.350268880119</v>
+        <v>300.3502688801372</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763071</v>
+        <v>163.6480708763253</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993882</v>
+        <v>69.87120530446165</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685546</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637182</v>
+        <v>113.4887579637192</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148167</v>
+        <v>559.9063389572716</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482972</v>
+        <v>854.4423223907536</v>
       </c>
       <c r="M9" t="n">
-        <v>1226.361020933133</v>
+        <v>1217.508790865056</v>
       </c>
       <c r="N9" t="n">
-        <v>1860.10030411797</v>
+        <v>1604.593193337626</v>
       </c>
       <c r="O9" t="n">
-        <v>2198.310003359405</v>
+        <v>1936.480003325016</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789028</v>
+        <v>2445.345361789045</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342773</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342773</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251688</v>
+        <v>2424.826280251707</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685337</v>
+        <v>2230.816477685355</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751567</v>
+        <v>2002.726321751585</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519824</v>
+        <v>1767.574213519842</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791622</v>
+        <v>1513.336856791641</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.48535658609</v>
+        <v>1305.485356586108</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821136</v>
+        <v>1097.725057821154</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1005.338550605572</v>
+        <v>981.7990111231047</v>
       </c>
       <c r="C10" t="n">
-        <v>836.4023676776648</v>
+        <v>812.8628281951978</v>
       </c>
       <c r="D10" t="n">
-        <v>686.285728265329</v>
+        <v>662.7461887828621</v>
       </c>
       <c r="E10" t="n">
-        <v>538.3726346829359</v>
+        <v>514.833095200469</v>
       </c>
       <c r="F10" t="n">
-        <v>391.4826871850255</v>
+        <v>367.9431477025586</v>
       </c>
       <c r="G10" t="n">
-        <v>223.4955623247162</v>
+        <v>199.9560228422493</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473601</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685546</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380102</v>
+        <v>76.63468308380182</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676559</v>
+        <v>248.2500215676574</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368905</v>
+        <v>523.385004336893</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904014</v>
+        <v>823.8653899904049</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.63564010161</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931088</v>
+        <v>1382.582027931093</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616496</v>
+        <v>1581.490387616502</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="W10" t="n">
-        <v>1635.769145477359</v>
+        <v>1612.229605994892</v>
       </c>
       <c r="X10" t="n">
-        <v>1407.779594579341</v>
+        <v>1384.240055096874</v>
       </c>
       <c r="Y10" t="n">
-        <v>1186.987015435811</v>
+        <v>1163.447475953344</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,10 +5029,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,19 +5117,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798835959</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>734.6461798835959</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>584.5295404712601</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>436.616446888867</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>289.7264993909566</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2311.800723230285</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2092.199258253227</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854701</v>
+        <v>1803.124031597425</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648814</v>
+        <v>1548.439543391538</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611853</v>
+        <v>1259.022373354577</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138356</v>
+        <v>1031.03282245656</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138356</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
@@ -5317,13 +5317,13 @@
         <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="17">
@@ -5509,43 +5509,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,19 +5588,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
         <v>1373.553594266881</v>
@@ -5652,25 +5652,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611464</v>
@@ -5740,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,34 +5770,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5840,10 +5840,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998291</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5983,55 +5983,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2387.053934044603</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2204.199099699508</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="26">
@@ -6208,67 +6208,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400639</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121571</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121571</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121571</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121571</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.721318527037</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.06254548756</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U28" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854699</v>
       </c>
       <c r="V28" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648812</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611851</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138338</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703037</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6466,28 +6466,28 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>197.0043242297717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,49 +6682,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474266</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>261.8464821474266</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>261.8464821474266</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398594</v>
@@ -6970,7 +6970,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7013,7 +7013,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703114</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424045</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>376.4492432300688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>228.5361496476756</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>228.5361496476756</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>228.5361496476756</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,28 +7186,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127284</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446527</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775174</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069086</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8303,10 +8303,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>26.13373767211354</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8534,28 +8534,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.406883545996</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538062</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>6.386756822269433</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>264.4747475094997</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348535</v>
+        <v>20.9861830434849</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>52.83923663127948</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>113.5907959652903</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>177.5728945814932</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>147.3599015160444</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.065188669821282</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.4949402405149</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>147.0213775686976</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>43.26526345294947</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>80.44045370237419</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>173.4237883572524</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>6.922421112517128</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>39.70888054695382</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>822180.507520644</v>
+        <v>822180.5075206441</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797946.9260679776</v>
+        <v>797946.9260679774</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797946.9260679777</v>
+        <v>797946.9260679778</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679776</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>797946.9260679776</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>797946.9260679777</v>
+        <v>797946.9260679778</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597551</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
@@ -26352,7 +26352,7 @@
         <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597547</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580765</v>
+        <v>390680.0076580807</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606958</v>
+        <v>507909.2320606917</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.237791017</v>
+        <v>95270.23779101814</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954697</v>
+        <v>132717.9756954687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252122.0652631775</v>
+        <v>252122.0652631774</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447217</v>
+        <v>141668.8507447205</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680572</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680581</v>
+        <v>11776.97621680574</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680574</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
+        <v>11776.97621680572</v>
+      </c>
+      <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="K4" t="n">
-        <v>11776.97621680578</v>
-      </c>
       <c r="L4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680572</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680574</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26459,7 +26459,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567877</v>
+        <v>92902.86757567912</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-358950.4774138168</v>
+        <v>-358950.4774138167</v>
       </c>
       <c r="C6" t="n">
-        <v>321137.5031773759</v>
+        <v>321137.5031773761</v>
       </c>
       <c r="D6" t="n">
-        <v>11055.64566634299</v>
+        <v>11055.64566633909</v>
       </c>
       <c r="E6" t="n">
-        <v>4382.497403989481</v>
+        <v>4695.138732914739</v>
       </c>
       <c r="F6" t="n">
-        <v>512291.7294646851</v>
+        <v>512604.3707936064</v>
       </c>
       <c r="G6" t="n">
-        <v>512291.7294646849</v>
+        <v>512604.370793606</v>
       </c>
       <c r="H6" t="n">
-        <v>512291.7294646853</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="I6" t="n">
-        <v>512291.7294646849</v>
+        <v>512604.3707936063</v>
       </c>
       <c r="J6" t="n">
-        <v>443292.5750455707</v>
+        <v>443605.216374492</v>
       </c>
       <c r="K6" t="n">
-        <v>512291.729464685</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="L6" t="n">
-        <v>417021.491673668</v>
+        <v>417334.1330025882</v>
       </c>
       <c r="M6" t="n">
-        <v>379573.7537692152</v>
+        <v>379886.3950981376</v>
       </c>
       <c r="N6" t="n">
-        <v>512291.7294646848</v>
+        <v>512604.370793606</v>
       </c>
       <c r="O6" t="n">
-        <v>512291.7294646848</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="P6" t="n">
-        <v>512291.7294646849</v>
+        <v>512604.370793606</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627809</v>
+        <v>933.7024595627843</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856932</v>
+        <v>640.1406900856978</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,34 +26804,34 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-5.925249708871845e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-3.083078765831444e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933026</v>
+        <v>319.6474457933059</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788931</v>
+        <v>434.2730407788897</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841871</v>
+        <v>376.4268100841916</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139554</v>
+        <v>532.5675980139508</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841871</v>
+        <v>376.4268100841916</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139554</v>
+        <v>532.5675980139511</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841871</v>
+        <v>376.4268100841916</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139554</v>
+        <v>532.5675980139508</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>157.1621355605638</v>
+        <v>309.9298287597861</v>
       </c>
       <c r="Y2" t="n">
         <v>122.5240586545473</v>
@@ -27475,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>15.58471532057114</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>133.3068499732318</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>118.5783761312237</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>43.38697350700684</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>119.0199616619743</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>101.5590117695013</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>257.4206960496749</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>101.6246675113629</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545473</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.21613438642676</v>
+        <v>13.22311377378364</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27751,13 +27751,13 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>46.73836361224039</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>218.1629549655372</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>9.783344527548536</v>
+        <v>341.0857180693609</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27949,10 +27949,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.776449164540466</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164522504</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>81.51210565545706</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>263.2188542489423</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28146,16 +28146,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.712273896151565e-12</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.179602050945138e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28304,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-5.809605180071106e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28377,19 +28377,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-5.925249708871845e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-5.925249708871845e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-5.925249708871845e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-1.623042018244242e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29471,7 +29471,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-6.275653105566108e-12</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29751,19 +29751,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29799,13 +29799,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29960,7 +29960,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-6.236529637543096e-12</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -29997,13 +29997,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1.362072233190111e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885548</v>
+        <v>3.753577726885562</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546664</v>
+        <v>38.44132789546677</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157552</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972526</v>
+        <v>318.5802175972537</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763179</v>
+        <v>477.4691627763197</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354916</v>
+        <v>592.3427171354939</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359925</v>
+        <v>659.0954050359949</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525062</v>
+        <v>669.7602577525086</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307879</v>
+        <v>632.4356192307903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983008</v>
+        <v>539.7691690983029</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.344166754212</v>
+        <v>405.3441667542135</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864745</v>
+        <v>235.7856768864754</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140453</v>
+        <v>85.53465245140484</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4312864994415</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508438</v>
+        <v>0.3002862181508449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436925</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035136</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026256</v>
+        <v>69.1468330902628</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079421</v>
+        <v>189.7441951079428</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502161</v>
+        <v>324.3030514502173</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571271</v>
+        <v>436.0654741571287</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617155</v>
+        <v>508.8678404617174</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152203</v>
+        <v>522.3360580152222</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519073</v>
+        <v>477.835446451909</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947581</v>
+        <v>383.5050724947595</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463696</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204786</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366391</v>
+        <v>37.30405581366404</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133919</v>
+        <v>8.095024154133947</v>
       </c>
       <c r="U9" t="n">
-        <v>0.132127706541903</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752555</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.9698525484</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415869</v>
+        <v>50.63422518415887</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954057</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772514</v>
+        <v>195.6183185772521</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490118</v>
+        <v>250.3240987490127</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023119</v>
+        <v>263.9316641023129</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462344</v>
+        <v>257.6559590462354</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046249</v>
+        <v>237.9869810046258</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708726</v>
+        <v>203.6389757708734</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939799</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307398</v>
+        <v>75.70643221307425</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658771</v>
+        <v>29.34274778658781</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942735</v>
+        <v>7.194100917942762</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650313</v>
+        <v>0.09183958618650347</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,10 +31849,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -32074,13 +32074,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,7 +32323,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982891</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089033</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966408</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827497113</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127262</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>238.3094620181792</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705663</v>
+        <v>137.5343130705675</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313374</v>
+        <v>257.3793117313392</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655044</v>
+        <v>356.5763021655067</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087198</v>
+        <v>428.7491718087222</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559152</v>
+        <v>440.3471941559176</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091011</v>
+        <v>402.3374078091035</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430313</v>
+        <v>308.5361733430333</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797626</v>
+        <v>183.038476879764</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234241</v>
+        <v>20.20013907234326</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127545</v>
+        <v>62.90656844127614</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758571</v>
+        <v>450.9268494884369</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772529</v>
+        <v>297.5110943772545</v>
       </c>
       <c r="M9" t="n">
-        <v>640.1406900856932</v>
+        <v>366.7338065396991</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856932</v>
+        <v>390.9943459318889</v>
       </c>
       <c r="O9" t="n">
-        <v>341.6259588297323</v>
+        <v>335.2392020074646</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804279</v>
+        <v>514.0054125899289</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603481</v>
+        <v>116.381210660349</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873288</v>
+        <v>25.68023017873332</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513686</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093279</v>
+        <v>277.9141240093288</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641525</v>
+        <v>303.5155410641535</v>
       </c>
       <c r="N10" t="n">
-        <v>301.788131425463</v>
+        <v>301.7881314254639</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186646</v>
+        <v>262.5721089186654</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357661</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228553</v>
+        <v>54.82702814228604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,10 +35497,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,7 +35971,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>302.0934576762708</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -36208,13 +36208,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060381</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
